--- a/simple.xlsx
+++ b/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="权限对应等级" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,7 @@
     <sheet name="新增" sheetId="8" r:id="rId8"/>
     <sheet name="查询" sheetId="9" r:id="rId9"/>
     <sheet name="校招表" sheetId="10" r:id="rId10"/>
+    <sheet name="转正表" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">管理界面!$B$5:$C$5</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
   <si>
     <t>权限对应等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,12 +662,144 @@
     <t>转正（可点）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>功能区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熟悉公司基础框架的设计，了解公司项目架构，掌握基于公司框架的项目开发能力。</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>掌握电子卷宗文件存储、文件处理等业务逻辑，并能够快速处理需求。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="7"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>熟悉关联系统（如审执系统）与卷宗对接的功能，具备接口联调的能力，并能快速解决现场问题。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能够分析业务场景，对表结构设计、接口设计提出见解和意见</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. 完成上级领导安排的其他任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,8 +874,56 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -759,6 +940,11 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF99"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -929,15 +1115,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -965,6 +1154,72 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -980,82 +1235,29 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 3" xfId="1"/>
+    <cellStyle name="适中" xfId="2" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1493,27 +1695,27 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="6" spans="2:15">
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="9"/>
-      <c r="I6" s="10" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="11"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1528,13 +1730,13 @@
       </c>
     </row>
     <row r="7" spans="2:15" ht="148.5">
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="37" t="s">
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1550,7 +1752,7 @@
       <c r="K7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="17" t="s">
+      <c r="L7" s="12" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -1559,7 +1761,7 @@
       <c r="N7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="11" t="s">
         <v>145</v>
       </c>
     </row>
@@ -1612,7 +1814,7 @@
       </c>
     </row>
     <row r="15" spans="2:15">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="34" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
@@ -1626,7 +1828,7 @@
       </c>
     </row>
     <row r="16" spans="2:15">
-      <c r="B16" s="13"/>
+      <c r="B16" s="35"/>
       <c r="C16" t="s">
         <v>137</v>
       </c>
@@ -1638,7 +1840,7 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="34" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
@@ -1646,19 +1848,52 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="13"/>
+      <c r="B18" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B18"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
     <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="C4:G4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="4" spans="3:7" ht="154.5">
+      <c r="C4" s="40" t="s">
+        <v>152</v>
+      </c>
+      <c r="D4" s="40" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="40" t="s">
+        <v>154</v>
+      </c>
+      <c r="F4" s="40" t="s">
+        <v>155</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>156</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1666,10 +1901,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:P23"/>
+  <dimension ref="B4:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P22" sqref="N16:P22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1679,13 +1914,13 @@
     <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:16">
+    <row r="4" spans="2:19">
       <c r="B4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:16" ht="35.25" customHeight="1">
-      <c r="B5" s="18" t="s">
+    <row r="5" spans="2:19" ht="35.25" customHeight="1">
+      <c r="B5" s="13" t="s">
         <v>65</v>
       </c>
       <c r="C5" t="s">
@@ -1703,29 +1938,32 @@
       <c r="N5" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="9" spans="2:16">
-      <c r="C9" s="12" t="s">
+      <c r="S5" s="38" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="9" spans="2:19">
+      <c r="C9" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="34" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10" t="s">
+      <c r="I9" s="31"/>
+      <c r="J9" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="11"/>
+      <c r="K9" s="33"/>
       <c r="L9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1738,21 +1976,21 @@
       <c r="O9" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="P9" s="10" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:16" ht="148.5">
+    <row r="10" spans="2:19" ht="148.5">
       <c r="B10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="37" t="s">
+      <c r="C10" s="35"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="35"/>
       <c r="H10" s="4" t="s">
         <v>26</v>
       </c>
@@ -1768,7 +2006,7 @@
       <c r="L10" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="12" t="s">
         <v>46</v>
       </c>
       <c r="N10" s="6" t="s">
@@ -1777,15 +2015,18 @@
       <c r="O10" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="P10" s="11" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="11" spans="2:16">
+      <c r="S10" s="39" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="2:19">
       <c r="B11">
         <v>10001</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="9">
         <v>42767</v>
       </c>
       <c r="D11" t="s">
@@ -1813,11 +2054,11 @@
         <v>90</v>
       </c>
     </row>
-    <row r="16" spans="2:16">
+    <row r="16" spans="2:19">
       <c r="B16" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="13" t="s">
         <v>65</v>
       </c>
     </row>
@@ -2288,6 +2529,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2583,61 +2825,61 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="36"/>
       <c r="C2" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="36" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="19"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="36"/>
+      <c r="D3" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="19"/>
+      <c r="E3" s="36"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="36"/>
+      <c r="D4" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E4" s="19"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2697,7 +2939,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B6" t="s">
@@ -2717,13 +2959,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="14" t="s">
         <v>110</v>
       </c>
       <c r="B7" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="14" t="s">
         <v>110</v>
       </c>
       <c r="E7" t="s">
@@ -2812,291 +3054,291 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="22"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
-      <c r="M7" s="33" t="s">
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="17"/>
+      <c r="M7" s="26" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:13">
-      <c r="B8" s="25"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
-      <c r="M8" s="34" t="s">
+      <c r="B8" s="18"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="20"/>
+      <c r="M8" s="27" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:13">
-      <c r="B9" s="25"/>
+      <c r="B9" s="18"/>
       <c r="C9" t="s">
         <v>117</v>
       </c>
-      <c r="D9" s="26"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26" t="s">
+      <c r="D9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27"/>
-      <c r="M9" s="34" t="s">
+      <c r="I9" s="19"/>
+      <c r="J9" s="20"/>
+      <c r="M9" s="27" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="27"/>
-      <c r="M10" s="34" t="s">
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="20"/>
+      <c r="M10" s="27" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:13">
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="27"/>
-      <c r="M11" s="34" t="s">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="20"/>
+      <c r="M11" s="27" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:13">
-      <c r="B12" s="25"/>
+      <c r="B12" s="18"/>
       <c r="C12" t="s">
         <v>122</v>
       </c>
-      <c r="D12" s="26"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26" t="s">
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="I12" s="26"/>
-      <c r="J12" s="27"/>
-      <c r="M12" s="34" t="s">
+      <c r="I12" s="19"/>
+      <c r="J12" s="20"/>
+      <c r="M12" s="27" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="B13" s="25"/>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="26"/>
-      <c r="J13" s="27"/>
-      <c r="M13" s="34" t="s">
+      <c r="B13" s="18"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="20"/>
+      <c r="M13" s="27" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:13">
-      <c r="B14" s="25"/>
-      <c r="C14" s="26"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="26"/>
-      <c r="J14" s="27"/>
-      <c r="M14" s="34" t="s">
+      <c r="B14" s="18"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="20"/>
+      <c r="M14" s="27" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:13">
-      <c r="B15" s="25"/>
-      <c r="C15" s="26"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="26"/>
-      <c r="J15" s="27"/>
-      <c r="M15" s="34" t="s">
+      <c r="B15" s="18"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="20"/>
+      <c r="M15" s="27" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="M16" s="34"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="M16" s="27"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="25"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="26"/>
-      <c r="J17" s="27"/>
-      <c r="M17" s="34"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="20"/>
+      <c r="M17" s="27"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="25"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="26"/>
-      <c r="J18" s="27"/>
-      <c r="M18" s="34"/>
+      <c r="B18" s="18"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="20"/>
+      <c r="M18" s="27"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="25"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="27"/>
-      <c r="M19" s="34"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="20"/>
+      <c r="M19" s="27"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="25"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="26"/>
-      <c r="J20" s="27"/>
-      <c r="M20" s="34"/>
+      <c r="B20" s="18"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="20"/>
+      <c r="M20" s="27"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="25"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="26"/>
-      <c r="J21" s="27"/>
-      <c r="M21" s="35"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
+      <c r="M21" s="28"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="25"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="27"/>
+      <c r="B22" s="18"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="20"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="25"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="26"/>
-      <c r="J23" s="27"/>
+      <c r="B23" s="18"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="25"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="20"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="25"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="26"/>
-      <c r="J25" s="27"/>
+      <c r="B25" s="18"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="25"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="26"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="26"/>
-      <c r="I26" s="26"/>
-      <c r="J26" s="27"/>
+      <c r="B26" s="18"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="25"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="26"/>
-      <c r="I27" s="26"/>
-      <c r="J27" s="27"/>
+      <c r="B27" s="18"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="28"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="23"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" t="s">

--- a/simple.xlsx
+++ b/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="权限对应等级" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="166">
   <si>
     <t>权限对应等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -400,10 +400,6 @@
   </si>
   <si>
     <t>sql查询时加入部门判断=</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新增三种，点了跳转去填表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -792,6 +788,45 @@
   </si>
   <si>
     <t>5. 完成上级领导安排的其他任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上上周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多..</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更多</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填报的工时描述是以周为单位吗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增两种，点了跳转去填表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时时间</t>
+  </si>
+  <si>
+    <t>这段评价描述的时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台计算每年的第几周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1126,7 +1161,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,6 +1255,18 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1235,23 +1282,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1686,36 +1727,36 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B6:O18"/>
+  <dimension ref="B6:P19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="6" spans="2:15">
-      <c r="B6" s="34" t="s">
+    <row r="6" spans="2:16">
+      <c r="B6" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="38" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32" t="s">
+      <c r="H6" s="35"/>
+      <c r="I6" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="37"/>
       <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1728,15 +1769,18 @@
       <c r="N6" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" ht="148.5">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="P6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" ht="148.5">
+      <c r="B7" s="39"/>
+      <c r="C7" s="39"/>
       <c r="D7" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="E7" s="39"/>
+      <c r="F7" s="39"/>
       <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1762,93 +1806,119 @@
         <v>31</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="2:15">
+        <v>144</v>
+      </c>
+      <c r="P7" s="43" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="C8" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" t="s">
+        <v>132</v>
+      </c>
+      <c r="I8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J8" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" t="s">
+        <v>132</v>
+      </c>
+      <c r="M8" t="s">
+        <v>132</v>
+      </c>
+      <c r="N8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
+      <c r="P9" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
+      <c r="P10" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
+      <c r="P11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
+      <c r="E13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
+      <c r="B14" t="s">
         <v>133</v>
       </c>
-      <c r="D8" t="s">
-        <v>133</v>
-      </c>
-      <c r="G8" t="s">
-        <v>133</v>
-      </c>
-      <c r="H8" t="s">
-        <v>133</v>
-      </c>
-      <c r="I8" t="s">
-        <v>133</v>
-      </c>
-      <c r="J8" t="s">
-        <v>133</v>
-      </c>
-      <c r="K8" t="s">
-        <v>133</v>
-      </c>
-      <c r="L8" t="s">
-        <v>133</v>
-      </c>
-      <c r="M8" t="s">
-        <v>133</v>
-      </c>
-      <c r="N8" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="2:15">
-      <c r="E13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C14" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E15" t="s">
+        <v>141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="39"/>
+      <c r="C16" t="s">
+        <v>136</v>
+      </c>
+      <c r="E16" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="14" spans="2:15">
-      <c r="B14" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
-      <c r="B15" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E15" t="s">
-        <v>142</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="F16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
-      <c r="B16" s="35"/>
-      <c r="C16" t="s">
-        <v>137</v>
-      </c>
-      <c r="E16" t="s">
-        <v>140</v>
-      </c>
-      <c r="F16" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="34" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>144</v>
-      </c>
-    </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="35"/>
+      <c r="B18" s="39"/>
+    </row>
+    <row r="19" spans="2:3" ht="40.5">
+      <c r="B19" s="43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1870,27 +1940,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:G4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="3:7" ht="154.5">
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="D4" s="40" t="s">
+      <c r="E4" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="40" t="s">
+      <c r="F4" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="G4" s="34" t="s">
         <v>155</v>
-      </c>
-      <c r="G4" s="41" t="s">
-        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -1904,7 +1974,7 @@
   <dimension ref="B4:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1938,32 +2008,32 @@
       <c r="N5" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="38" t="s">
-        <v>150</v>
+      <c r="S5" s="31" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="2:19">
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="34" t="s">
+      <c r="D9" s="38" t="s">
         <v>19</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="34" t="s">
+      <c r="F9" s="38" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="31" t="s">
+      <c r="H9" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="31"/>
-      <c r="J9" s="32" t="s">
+      <c r="I9" s="35"/>
+      <c r="J9" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="33"/>
+      <c r="K9" s="37"/>
       <c r="L9" s="3" t="s">
         <v>23</v>
       </c>
@@ -1982,15 +2052,15 @@
     </row>
     <row r="10" spans="2:19" ht="148.5">
       <c r="B10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
+        <v>88</v>
+      </c>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
       <c r="E10" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
+        <v>126</v>
+      </c>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="4" t="s">
         <v>26</v>
       </c>
@@ -2018,8 +2088,8 @@
       <c r="P10" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="39" t="s">
-        <v>151</v>
+      <c r="S10" s="32" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:19">
@@ -2051,12 +2121,12 @@
         <v>40</v>
       </c>
       <c r="P11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16" spans="2:19">
       <c r="B16" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C16" s="13" t="s">
         <v>65</v>
@@ -2064,7 +2134,7 @@
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="3:3">
@@ -2094,7 +2164,7 @@
     </row>
     <row r="23" spans="3:3">
       <c r="C23" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2116,7 +2186,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2226,7 +2296,7 @@
         <v>58</v>
       </c>
       <c r="G4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
         <v>59</v>
@@ -2258,10 +2328,10 @@
         <v>58</v>
       </c>
       <c r="G5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
         <v>57</v>
@@ -2290,10 +2360,10 @@
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
         <v>57</v>
@@ -2322,10 +2392,10 @@
         <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I7" t="s">
         <v>57</v>
@@ -2354,7 +2424,7 @@
         <v>57</v>
       </c>
       <c r="G8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H8" t="s">
         <v>57</v>
@@ -2386,7 +2456,7 @@
         <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H9" t="s">
         <v>57</v>
@@ -2418,7 +2488,7 @@
         <v>57</v>
       </c>
       <c r="G10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H10" t="s">
         <v>57</v>
@@ -2450,7 +2520,7 @@
         <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H11" t="s">
         <v>57</v>
@@ -2482,7 +2552,7 @@
         <v>57</v>
       </c>
       <c r="G12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H12" t="s">
         <v>57</v>
@@ -2514,7 +2584,7 @@
         <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H13" t="s">
         <v>57</v>
@@ -2538,7 +2608,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2576,7 +2646,7 @@
         <v>69</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
         <v>74</v>
@@ -2632,7 +2702,7 @@
         <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>85</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2640,10 +2710,10 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" t="s">
         <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2654,7 +2724,7 @@
         <v>69</v>
       </c>
       <c r="C9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2686,7 +2756,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2697,7 +2767,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
         <v>68</v>
@@ -2711,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2722,7 +2792,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -2733,7 +2803,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -2760,7 +2830,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -2811,84 +2881,210 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>160</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="17"/>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="18"/>
+      <c r="H5" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="I5" s="40"/>
+      <c r="J5" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="36"/>
-      <c r="C2" t="s">
+      <c r="K5" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="36" t="s">
+      <c r="L5" s="40"/>
+      <c r="M5" s="20"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="G6" s="18"/>
+      <c r="H6" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="36"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="36" t="s">
+      <c r="I6" s="40"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="D3" s="36" t="s">
+      <c r="L6" s="40"/>
+      <c r="M6" s="20"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="G7" s="18"/>
+      <c r="H7" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="36"/>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="B4" s="36"/>
-      <c r="D4" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="E4" s="36"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="36"/>
-      <c r="B6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="36"/>
-      <c r="B7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="36"/>
-      <c r="B8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
+      <c r="I7" s="40"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="41" t="s">
+        <v>102</v>
+      </c>
+      <c r="L7" s="40"/>
+      <c r="M7" s="20"/>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="G8" s="18"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40"/>
+      <c r="M8" s="20"/>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="G9" s="18"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="40"/>
+      <c r="L9" s="40"/>
+      <c r="M9" s="20"/>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="G10" s="18"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40"/>
+      <c r="M10" s="20"/>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="G11" s="21"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="19" spans="2:17">
+      <c r="B19" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="20" spans="2:17">
+      <c r="B20" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="21" spans="2:17">
+      <c r="B21" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="2:17">
+      <c r="E22" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="27" spans="2:17">
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>4</v>
+      </c>
+      <c r="N27">
+        <v>5</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:17">
+      <c r="L29">
+        <v>3</v>
+      </c>
+      <c r="M29">
+        <v>4</v>
+      </c>
+      <c r="N29">
+        <v>5</v>
+      </c>
+      <c r="O29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17">
+      <c r="N31">
+        <v>5</v>
+      </c>
+      <c r="O31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>2</v>
+      </c>
+      <c r="Q31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="13:15">
+      <c r="M33">
+        <v>4</v>
+      </c>
+      <c r="N33">
+        <v>5</v>
+      </c>
+      <c r="O33">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A4:B8"/>
-    <mergeCell ref="D4:E8"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="H7:I11"/>
+    <mergeCell ref="K7:L11"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2900,59 +3096,59 @@
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+      <selection activeCell="I44" sqref="I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3" t="s">
         <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
       <c r="A6" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
@@ -2960,40 +3156,40 @@
     </row>
     <row r="7" spans="1:9" ht="16.5">
       <c r="A7" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H7" t="s">
-        <v>109</v>
-      </c>
       <c r="I7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
+        <v>111</v>
+      </c>
+      <c r="D14" t="s">
         <v>112</v>
-      </c>
-      <c r="D14" t="s">
-        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3019,17 +3215,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3064,7 +3260,7 @@
       <c r="I7" s="16"/>
       <c r="J7" s="17"/>
       <c r="M7" s="26" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -3078,33 +3274,33 @@
       <c r="I8" s="19"/>
       <c r="J8" s="20"/>
       <c r="M8" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="B9" s="18"/>
       <c r="C9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
       <c r="F9" s="25"/>
       <c r="G9" s="19"/>
       <c r="H9" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I9" s="19"/>
       <c r="J9" s="20"/>
       <c r="M9" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="B10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="19" t="s">
         <v>120</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="19"/>
@@ -3114,7 +3310,7 @@
       <c r="I10" s="19"/>
       <c r="J10" s="20"/>
       <c r="M10" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -3128,25 +3324,25 @@
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
       <c r="M11" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="B12" s="18"/>
       <c r="C12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
       <c r="F12" s="25"/>
       <c r="G12" s="19"/>
       <c r="H12" s="19" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
       <c r="M12" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -3160,7 +3356,7 @@
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
       <c r="M13" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -3174,7 +3370,7 @@
       <c r="I14" s="19"/>
       <c r="J14" s="20"/>
       <c r="M14" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -3188,7 +3384,7 @@
       <c r="I15" s="19"/>
       <c r="J15" s="20"/>
       <c r="M15" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -3342,20 +3538,20 @@
     </row>
     <row r="32" spans="2:13">
       <c r="B32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D33" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/simple.xlsx
+++ b/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285" activeTab="5"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="权限对应等级" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="242">
   <si>
     <t>权限对应等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -301,32 +301,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>99</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>条记录</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>前端性质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,10 +358,6 @@
   </si>
   <si>
     <t>点击后出现时间区间选择，开始时间，年/月/日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -829,12 +799,373 @@
     <t>后台计算每年的第几周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>带教老师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作安排</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际进度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请教问题</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否解决</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作态度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作状态</t>
+  </si>
+  <si>
+    <t>提升空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>培训情况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>←本月→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>←上周→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出excel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记录ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>←本年→</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>反馈时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>态度举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李四</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>试用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>员工</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力资源经理</t>
+  </si>
+  <si>
+    <t>人力资源副总</t>
+  </si>
+  <si>
+    <t>级别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入职时间</t>
+  </si>
+  <si>
+    <t>周次</t>
+  </si>
+  <si>
+    <t>工作安排情况</t>
+  </si>
+  <si>
+    <t>实际完成情况</t>
+  </si>
+  <si>
+    <t>员工学习问题</t>
+  </si>
+  <si>
+    <t>问题是否得到解决</t>
+  </si>
+  <si>
+    <t>培训信息</t>
+  </si>
+  <si>
+    <t>2021.4.6</t>
+  </si>
+  <si>
+    <t>试用期</t>
+  </si>
+  <si>
+    <t>已转正</t>
+  </si>
+  <si>
+    <t>已离职</t>
+  </si>
+  <si>
+    <t>异常</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.12-7.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置转正目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年所有记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年本周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台处理本周为2021年第几周，搜记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年上周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台处理上周为2021年第几周，搜记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>where year=2021 and weeks=11</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>张小凡</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>周数</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>年度</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>本周培训情况</t>
+  </si>
+  <si>
+    <t>仅显示</t>
+  </si>
+  <si>
+    <t>转正目标</t>
+  </si>
+  <si>
+    <t>张小凡， 上周__▼</t>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">张小凡， </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>本周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>__▼</t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>周数12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台表格显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12周是第多少天-多少天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次_第12周_▼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次_第11周_▼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台搜11周记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台搜12周记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次______▼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">年度_____▼  </t>
+  </si>
+  <si>
+    <r>
+      <t>周次_</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>本周</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_▼</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次_上周_▼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">年度_2021__▼  </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周次_7.12-7.16_▼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>年度_____▼  部门______▼  人员_____▼ 周次______▼ 是否异常</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Wingdings 2"/>
+        <family val="1"/>
+        <charset val="2"/>
+      </rPr>
+      <t>£</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  人员状态______▼ </t>
+    </r>
+    <phoneticPr fontId="21" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【修改】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转正目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【图标】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="17">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -957,8 +1288,66 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Wingdings 2"/>
+      <family val="1"/>
+      <charset val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -980,6 +1369,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1161,7 +1556,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1189,21 +1584,12 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1255,18 +1641,15 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1291,8 +1674,110 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1590,24 +2075,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N26" sqref="N26"/>
+      <selection activeCell="G2" sqref="G2:H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1617,8 +2103,14 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="15">
+      <c r="G2" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1628,8 +2120,14 @@
       <c r="C3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
+      <c r="G3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1639,16 +2137,28 @@
       <c r="C4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
+      <c r="G4" t="s">
+        <v>166</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="15">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -1658,16 +2168,28 @@
       <c r="C6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="15">
+      <c r="G6" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" ht="15">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1677,16 +2199,28 @@
       <c r="C8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="15">
+      <c r="G8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B9">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="15">
+      <c r="G9" t="s">
+        <v>192</v>
+      </c>
+      <c r="H9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1694,7 +2228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +2236,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:8" ht="15">
       <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
@@ -1710,7 +2244,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:8" ht="15">
       <c r="A13" s="1" t="s">
         <v>13</v>
       </c>
@@ -1736,27 +2270,27 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="6" spans="2:16">
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="34" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="38" t="s">
+      <c r="E6" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="38" t="s">
+      <c r="F6" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="35" t="s">
+      <c r="G6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="35"/>
-      <c r="I6" s="36" t="s">
+      <c r="H6" s="31"/>
+      <c r="I6" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="37"/>
+      <c r="J6" s="33"/>
       <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
@@ -1770,17 +2304,17 @@
         <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="148.5">
-      <c r="B7" s="39"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="E7" s="39"/>
-      <c r="F7" s="39"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="E7" s="35"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
@@ -1796,7 +2330,7 @@
       <c r="K7" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="10" t="s">
         <v>46</v>
       </c>
       <c r="M7" s="6" t="s">
@@ -1805,119 +2339,119 @@
       <c r="N7" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O7" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="P7" s="43" t="s">
-        <v>164</v>
+      <c r="O7" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="2:16">
       <c r="C8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="J8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="M8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="N8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="2:16">
       <c r="P9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="P10" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="P11" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="13" spans="2:16">
       <c r="E13" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="2:16">
       <c r="B14" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
+      <c r="B15" s="34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s">
         <v>133</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
+      <c r="B16" s="35"/>
+      <c r="C16" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="15" spans="2:16">
-      <c r="B15" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s">
-        <v>135</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="E16" t="s">
+        <v>137</v>
+      </c>
+      <c r="F16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="34" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" t="s">
         <v>141</v>
       </c>
-      <c r="F15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16">
-      <c r="B16" s="39"/>
-      <c r="C16" t="s">
-        <v>136</v>
-      </c>
-      <c r="E16" t="s">
-        <v>139</v>
-      </c>
-      <c r="F16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3">
-      <c r="B17" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="39"/>
+      <c r="B18" s="35"/>
     </row>
     <row r="19" spans="2:3" ht="40.5">
-      <c r="B19" s="43" t="s">
-        <v>164</v>
+      <c r="B19" s="30" t="s">
+        <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -1940,27 +2474,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="C4:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J34" sqref="J34"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E16" sqref="D16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="4" spans="3:7" ht="154.5">
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="D4" s="33" t="s">
+      <c r="F4" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="G4" s="29" t="s">
         <v>153</v>
-      </c>
-      <c r="F4" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="G4" s="34" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -1971,210 +2505,779 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:S23"/>
+  <dimension ref="B4:AA75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="39"/>
+    <col min="2" max="2" width="15.25" style="39" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="39"/>
+    <col min="8" max="8" width="13.375" style="39" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="39"/>
+    <col min="10" max="12" width="14.125" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="39" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="39"/>
+    <col min="15" max="15" width="13" style="39" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="39"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:19">
-      <c r="B4" t="s">
+    <row r="4" spans="2:26">
+      <c r="B4" s="39" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:19" ht="35.25" customHeight="1">
-      <c r="B5" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
+    <row r="5" spans="2:26" ht="35.25" customHeight="1">
+      <c r="B5" s="40"/>
+      <c r="C5" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" s="39" t="s">
         <v>42</v>
       </c>
-      <c r="L5" t="s">
+      <c r="K5" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="N5" t="s">
+      <c r="M5" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="31" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19">
-      <c r="C9" s="38" t="s">
+      <c r="R5" s="41" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26">
+      <c r="C9" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="38" t="s">
+      <c r="D9" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="8"/>
-      <c r="F9" s="38" t="s">
+      <c r="E9" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="38" t="s">
+      <c r="F9" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="H9" s="35" t="s">
+      <c r="G9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="35"/>
-      <c r="J9" s="36" t="s">
+      <c r="H9" s="43"/>
+      <c r="I9" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="K9" s="37"/>
-      <c r="L9" s="3" t="s">
+      <c r="J9" s="45"/>
+      <c r="K9" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="M9" t="s">
+      <c r="L9" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="M9" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="N9" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="P9" s="10" t="s">
+      <c r="O9" s="47" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:19" ht="148.5">
-      <c r="B10" t="s">
-        <v>88</v>
-      </c>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="4" t="s">
+    <row r="10" spans="2:26" ht="94.5">
+      <c r="B10" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="H10" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J10" s="6" t="s">
+      <c r="I10" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="J10" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="M10" s="12" t="s">
+      <c r="L10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="N10" s="6" t="s">
+      <c r="M10" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="O10" s="6" t="s">
+      <c r="N10" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="P10" s="11" t="s">
+      <c r="O10" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="S10" s="32" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="11" spans="2:19">
-      <c r="B11">
+      <c r="R10" s="54" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26">
+      <c r="B11" s="39">
         <v>10001</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="55">
         <v>42767</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="E11" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="G11" t="s">
+      <c r="F11" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G11" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="M11" t="s">
+      <c r="L11" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="P11" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="2:19">
-      <c r="B16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3">
-      <c r="C17" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3">
-      <c r="C18" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3">
-      <c r="C19" t="s">
+      <c r="O11" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="14.25">
+      <c r="B16" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="T16" s="73" t="s">
+        <v>223</v>
+      </c>
+      <c r="U16" s="72"/>
+      <c r="Y16" s="73" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z16" s="72"/>
+    </row>
+    <row r="17" spans="3:27">
+      <c r="C17" s="39" t="s">
+        <v>86</v>
+      </c>
+      <c r="T17" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="U17" s="70" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y17" s="71" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z17" s="70" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="3:27">
+      <c r="C18" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="T18" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="U18" s="57"/>
+      <c r="Y18" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z18" s="57"/>
+    </row>
+    <row r="19" spans="3:27">
+      <c r="C19" s="39" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
-      <c r="C20" t="s">
+    <row r="20" spans="3:27">
+      <c r="C20" s="39" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="21" spans="3:3">
-      <c r="C21" t="s">
+      <c r="J20" s="39" t="s">
+        <v>232</v>
+      </c>
+      <c r="K20" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="M20" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" ht="14.25">
+      <c r="C21" s="39" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="3:3">
-      <c r="C22" t="s">
+      <c r="J21" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K21" s="39" t="s">
+        <v>231</v>
+      </c>
+      <c r="M21" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="U21" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="V21" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="Z21" s="68" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA21" s="68" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="3:27" ht="14.25">
+      <c r="C22" s="39" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="3:3">
-      <c r="C23" t="s">
-        <v>148</v>
+      <c r="J22" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K22" s="39" t="s">
+        <v>233</v>
+      </c>
+      <c r="M22" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="N22" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="T22" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="U22" s="39">
+        <v>2021</v>
+      </c>
+      <c r="V22" s="39">
+        <v>12</v>
+      </c>
+      <c r="Y22" s="68" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z22" s="39">
+        <v>2021</v>
+      </c>
+      <c r="AA22" s="39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27">
+      <c r="C23" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K23" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="M23" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="N23" s="39" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="24" spans="3:27" ht="14.25">
+      <c r="T24" s="68" t="s">
+        <v>215</v>
+      </c>
+      <c r="U24" s="68"/>
+    </row>
+    <row r="25" spans="3:27">
+      <c r="J25" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K25" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="M25" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="N25" s="39" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27">
+      <c r="J26" s="39" t="s">
+        <v>235</v>
+      </c>
+      <c r="K26" s="39" t="s">
+        <v>227</v>
+      </c>
+      <c r="M26" s="39" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="39" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27">
+      <c r="T27" s="39" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="28" spans="3:27">
+      <c r="K28" s="39" t="s">
+        <v>236</v>
+      </c>
+      <c r="T28" s="39" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27">
+      <c r="T29" s="39" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="34" spans="3:20" ht="14.25">
+      <c r="C34" s="63" t="s">
+        <v>237</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="64"/>
+      <c r="K34" s="64"/>
+      <c r="N34" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="O34" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="P34" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q34" s="39" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="3:20">
+      <c r="T36" s="39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:20">
+      <c r="C37" s="65" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" s="65" t="s">
+        <v>195</v>
+      </c>
+      <c r="G37" s="65" t="s">
+        <v>196</v>
+      </c>
+      <c r="H37" s="65" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="65" t="s">
+        <v>197</v>
+      </c>
+      <c r="J37" s="65" t="s">
+        <v>198</v>
+      </c>
+      <c r="K37" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="L37" s="65" t="s">
+        <v>200</v>
+      </c>
+      <c r="M37" s="65" t="s">
+        <v>172</v>
+      </c>
+      <c r="N37" s="65" t="s">
+        <v>24</v>
+      </c>
+      <c r="O37" s="65" t="s">
+        <v>201</v>
+      </c>
+      <c r="P37" s="65" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q37" s="65" t="s">
+        <v>238</v>
+      </c>
+      <c r="R37" s="65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="3:20">
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="65"/>
+      <c r="N38" s="65"/>
+      <c r="O38" s="65"/>
+      <c r="P38" s="65"/>
+      <c r="Q38" s="65" t="s">
+        <v>239</v>
+      </c>
+      <c r="R38" s="65" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="39" spans="3:20">
+      <c r="C39" s="66"/>
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="G39" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" s="67"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q39" s="65"/>
+      <c r="R39" s="65"/>
+    </row>
+    <row r="40" spans="3:20">
+      <c r="C40" s="66"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q40" s="65"/>
+      <c r="R40" s="65"/>
+    </row>
+    <row r="41" spans="3:20">
+      <c r="C41" s="66"/>
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q41" s="65"/>
+      <c r="R41" s="65"/>
+    </row>
+    <row r="42" spans="3:20">
+      <c r="C42" s="66"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="67"/>
+      <c r="Q42" s="65"/>
+      <c r="R42" s="65"/>
+    </row>
+    <row r="43" spans="3:20">
+      <c r="C43" s="66"/>
+      <c r="D43" s="66"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="67"/>
+      <c r="Q43" s="65"/>
+      <c r="R43" s="65"/>
+    </row>
+    <row r="44" spans="3:20">
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="65"/>
+      <c r="R44" s="65"/>
+    </row>
+    <row r="45" spans="3:20">
+      <c r="C45" s="66"/>
+      <c r="D45" s="66"/>
+      <c r="E45" s="66"/>
+      <c r="F45" s="66"/>
+      <c r="G45" s="66"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="66"/>
+      <c r="J45" s="66"/>
+      <c r="K45" s="66"/>
+      <c r="L45" s="66"/>
+      <c r="M45" s="66"/>
+      <c r="N45" s="66"/>
+      <c r="O45" s="66"/>
+      <c r="P45" s="66"/>
+      <c r="Q45" s="65"/>
+      <c r="R45" s="65"/>
+    </row>
+    <row r="49" spans="3:20">
+      <c r="C49" s="58"/>
+      <c r="D49" s="59"/>
+      <c r="O49" s="60"/>
+    </row>
+    <row r="57" spans="3:20">
+      <c r="C57" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D57" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E57" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F57" s="56"/>
+      <c r="G57" s="56"/>
+      <c r="H57" s="61"/>
+      <c r="N57" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="O57" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="P57" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="T57" s="39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:20">
+      <c r="C60" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E60" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F60" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G60" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H60" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I60" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J60" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="K60" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L60" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="M60" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N60" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="O60" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="P60" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="3:20">
+      <c r="C61" s="58">
+        <v>1001</v>
+      </c>
+      <c r="D61" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E61" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F61" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="O61" s="60">
+        <v>44197</v>
+      </c>
+      <c r="P61" s="39" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71" spans="3:20">
+      <c r="C71" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="D71" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="E71" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="F71" s="56"/>
+      <c r="G71" s="56"/>
+      <c r="P71" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="T71" s="39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:20">
+      <c r="C74" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="D74" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="E74" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="F74" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="H74" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="I74" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="J74" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="K74" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="L74" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="M74" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="N74" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="O74" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="P74" s="39" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="75" spans="3:20">
+      <c r="C75" s="39">
+        <v>1001</v>
+      </c>
+      <c r="D75" s="39" t="s">
+        <v>186</v>
+      </c>
+      <c r="E75" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="F75" s="39" t="s">
+        <v>188</v>
+      </c>
+      <c r="O75" s="60">
+        <v>44197</v>
+      </c>
+      <c r="P75" s="39" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="J9:K9"/>
+  <mergeCells count="8">
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="G9:G10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2226,7 +3329,7 @@
         <v>62</v>
       </c>
       <c r="E2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
         <v>41</v>
@@ -2629,13 +3732,13 @@
         <v>51</v>
       </c>
       <c r="B2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" t="s">
         <v>66</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>67</v>
-      </c>
-      <c r="D2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2643,13 +3746,13 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2657,27 +3760,27 @@
         <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>79</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>80</v>
-      </c>
-      <c r="D5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2685,13 +3788,13 @@
         <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2699,10 +3802,10 @@
         <v>42</v>
       </c>
       <c r="B7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2710,10 +3813,10 @@
         <v>48</v>
       </c>
       <c r="B8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -2721,10 +3824,10 @@
         <v>60</v>
       </c>
       <c r="B9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -2732,7 +3835,7 @@
         <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2756,7 +3859,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2767,10 +3870,10 @@
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15">
@@ -2781,7 +3884,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15">
@@ -2792,7 +3895,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15">
@@ -2803,7 +3906,7 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15">
@@ -2830,7 +3933,7 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15">
@@ -2883,139 +3986,139 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V22" sqref="V22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="17"/>
+        <v>154</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>159</v>
-      </c>
-      <c r="G5" s="18"/>
-      <c r="H5" s="40" t="s">
+        <v>157</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="I5" s="36"/>
+      <c r="J5" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="K5" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="I5" s="40"/>
-      <c r="J5" s="19" t="s">
+      <c r="L5" s="36"/>
+      <c r="M5" s="17"/>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="G6" s="15"/>
+      <c r="H6" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="K5" s="40" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="40"/>
-      <c r="M5" s="20"/>
-    </row>
-    <row r="6" spans="1:13">
-      <c r="G6" s="18"/>
-      <c r="H6" s="40" t="s">
+      <c r="L6" s="36"/>
+      <c r="M6" s="17"/>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="G7" s="15"/>
+      <c r="H7" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="I6" s="40"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="L6" s="40"/>
-      <c r="M6" s="20"/>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="G7" s="18"/>
-      <c r="H7" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="I7" s="40"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="L7" s="40"/>
-      <c r="M7" s="20"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="L7" s="36"/>
+      <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13">
-      <c r="G8" s="18"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40"/>
-      <c r="M8" s="20"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13">
-      <c r="G9" s="18"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="40"/>
-      <c r="L9" s="40"/>
-      <c r="M9" s="20"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="G10" s="18"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="20"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13">
-      <c r="G11" s="21"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="23"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="20"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="E22" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="2:17">
@@ -3103,93 +4206,93 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D5" t="s">
         <v>106</v>
       </c>
-      <c r="D5" t="s">
-        <v>108</v>
-      </c>
       <c r="E5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
         <v>106</v>
       </c>
-      <c r="H5" t="s">
-        <v>108</v>
-      </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="16.5">
-      <c r="A6" s="14" t="s">
-        <v>109</v>
+      <c r="A6" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
       </c>
       <c r="D6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="16.5">
-      <c r="A7" s="14" t="s">
-        <v>109</v>
+      <c r="A7" s="11" t="s">
+        <v>107</v>
       </c>
       <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D7" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>109</v>
-      </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3215,17 +4318,17 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3239,7 +4342,7 @@
   <dimension ref="A2:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+      <selection activeCell="R23" sqref="R23:S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3250,308 +4353,308 @@
       </c>
     </row>
     <row r="7" spans="1:13">
-      <c r="B7" s="15"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="17"/>
-      <c r="M7" s="26" t="s">
+      <c r="B7" s="12"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+      <c r="M7" s="23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="B8" s="15"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+      <c r="M8" s="24" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="B9" s="15"/>
+      <c r="C9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D9" s="16"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="17"/>
+      <c r="M9" s="24" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="B10" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="B8" s="18"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-      <c r="M8" s="27" t="s">
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+      <c r="M10" s="24" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="B9" s="18"/>
-      <c r="C9" t="s">
-        <v>116</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-      <c r="M9" s="27" t="s">
+    <row r="11" spans="1:13">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="M11" s="24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="B10" s="29" t="s">
+    <row r="12" spans="1:13">
+      <c r="B12" s="15"/>
+      <c r="C12" t="s">
         <v>119</v>
       </c>
-      <c r="C10" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
-      <c r="H10" s="19"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-      <c r="M10" s="27" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="B11" s="18"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-      <c r="M11" s="27" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+      <c r="M12" s="24" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="B12" s="18"/>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19" t="s">
-        <v>117</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-      <c r="M12" s="27" t="s">
+    <row r="13" spans="1:13">
+      <c r="B13" s="15"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="17"/>
+      <c r="M13" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+      <c r="M14" s="24" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="B13" s="18"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-      <c r="M13" s="27" t="s">
+    <row r="15" spans="1:13">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="17"/>
+      <c r="M15" s="24" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="B14" s="18"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-      <c r="M14" s="27" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="B15" s="18"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-      <c r="M15" s="27" t="s">
-        <v>130</v>
-      </c>
-    </row>
     <row r="16" spans="1:13">
-      <c r="B16" s="18"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-      <c r="M16" s="27"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+      <c r="M16" s="24"/>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="18"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-      <c r="M17" s="27"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="17"/>
+      <c r="M17" s="24"/>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="18"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-      <c r="M18" s="27"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+      <c r="M18" s="24"/>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="18"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-      <c r="M19" s="27"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
+      <c r="M19" s="24"/>
     </row>
     <row r="20" spans="2:13">
-      <c r="B20" s="18"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-      <c r="M20" s="27"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+      <c r="M20" s="24"/>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="18"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-      <c r="M21" s="28"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
+      <c r="M21" s="25"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="17"/>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="17"/>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="17"/>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="21"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="23"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
     </row>
     <row r="32" spans="2:13">
       <c r="B32" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="2:4">
       <c r="B34" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/simple.xlsx
+++ b/simple.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285" activeTab="10"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27975" windowHeight="12285" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="权限对应等级" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="249">
   <si>
     <t>权限对应等级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -637,130 +637,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>1.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>熟悉公司基础框架的设计，了解公司项目架构，掌握基于公司框架的项目开发能力。</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>掌握电子卷宗文件存储、文件处理等业务逻辑，并能够快速处理需求。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="7"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">     </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>熟悉关联系统（如审执系统）与卷宗对接的功能，具备接口联调的能力，并能快速解决现场问题。</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">4. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10.5"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>能够分析业务场景，对表结构设计、接口设计提出见解和意见</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5. 完成上级领导安排的其他任务。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>本周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -832,9 +708,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>工作状态</t>
-  </si>
-  <si>
     <t>提升空间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -953,10 +826,6 @@
     <t>已离职</t>
   </si>
   <si>
-    <t>异常</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.12-7.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -990,19 +859,19 @@
   </si>
   <si>
     <t>where year=2021 and weeks=11</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>张小凡</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>周数</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>年度</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>本周培训情况</t>
@@ -1015,7 +884,7 @@
   </si>
   <si>
     <t>张小凡， 上周__▼</t>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1040,7 +909,7 @@
       </rPr>
       <t>__▼</t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
   <si>
     <t>周数12</t>
@@ -1119,8 +988,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【修改】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转正目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【图标】</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>年度_____▼  部门______▼  人员_____▼ 周次______▼ 是否异常</t>
+      <t>年度_____▼  部门______▼  人员_____▼ 人员状态______▼ 周次______▼ 是否异常</t>
     </r>
     <r>
       <rPr>
@@ -1140,24 +1025,60 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">  人员状态______▼ </t>
+      <t xml:space="preserve">   </t>
     </r>
-    <phoneticPr fontId="21" type="noConversion"/>
-  </si>
-  <si>
-    <t>操作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【修改】</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>转正目标</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【图标】</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉公司基础框架的设计，了解公司项目架构，掌握基于公司框架的项目开发能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌握电子卷宗文件存储、文件处理等业务逻辑，并能够快速处理需求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉关联系统（如审执系统）与卷宗对接的功能，具备接口联调的能力，并能快速解决现场问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够分析业务场景，对表结构设计、接口设计提出见解和意见</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成上级领导安排的其他任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一、二周：环境搭建。熟悉电子卷宗表结构及文件存储逻辑，开发电子卷宗简单需求。</t>
+  </si>
+  <si>
+    <t>第三、四周：熟悉工作流的设计，了解表结构，熟悉卷宗工作流的业务流转，业务数据的存储，处理电子卷宗一般难度需求。</t>
+  </si>
+  <si>
+    <t>第五到第八周：熟悉文件处理的流程，了解文件存储的结构化数据，能够独立处理电子卷宗核心需求；协助解决现场问题。</t>
+  </si>
+  <si>
+    <t>第九到第十二周：快速、高效的处理需求和现场问题；能够对电子卷宗的代码优化提出建议，需求评审提出自己意见；能够为团队内成员提供一定帮助。</t>
+  </si>
+  <si>
+    <t>姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仅显示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工作态度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否达到预期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1165,7 +1086,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="25">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1251,27 +1172,9 @@
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="7"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -1285,14 +1188,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1556,7 +1451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1641,15 +1536,129 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1659,125 +1668,17 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="17" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2104,10 +2005,10 @@
         <v>5</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="15">
@@ -2121,7 +2022,7 @@
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -2138,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2200,7 +2101,7 @@
         <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H8">
         <v>3</v>
@@ -2214,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H9">
         <v>3</v>
@@ -2270,27 +2171,27 @@
   <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
     <row r="6" spans="2:16">
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="67" t="s">
         <v>19</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="34" t="s">
+      <c r="E6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="34" t="s">
+      <c r="F6" s="67" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32" t="s">
+      <c r="H6" s="69"/>
+      <c r="I6" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="33"/>
+      <c r="J6" s="71"/>
       <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
@@ -2304,17 +2205,17 @@
         <v>25</v>
       </c>
       <c r="P6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="2:16" ht="148.5">
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
       <c r="G7" s="4" t="s">
         <v>26</v>
       </c>
@@ -2342,8 +2243,8 @@
       <c r="O7" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="P7" s="30" t="s">
-        <v>162</v>
+      <c r="P7" s="28" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="8" spans="2:16">
@@ -2380,17 +2281,17 @@
     </row>
     <row r="9" spans="2:16">
       <c r="P9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="2:16">
       <c r="P10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="11" spans="2:16">
       <c r="P11" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="2:16">
@@ -2410,7 +2311,7 @@
       </c>
     </row>
     <row r="15" spans="2:16">
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="67" t="s">
         <v>20</v>
       </c>
       <c r="C15" t="s">
@@ -2424,7 +2325,7 @@
       </c>
     </row>
     <row r="16" spans="2:16">
-      <c r="B16" s="35"/>
+      <c r="B16" s="68"/>
       <c r="C16" t="s">
         <v>134</v>
       </c>
@@ -2436,7 +2337,7 @@
       </c>
     </row>
     <row r="17" spans="2:3">
-      <c r="B17" s="34" t="s">
+      <c r="B17" s="67" t="s">
         <v>4</v>
       </c>
       <c r="C17" t="s">
@@ -2444,14 +2345,14 @@
       </c>
     </row>
     <row r="18" spans="2:3">
-      <c r="B18" s="35"/>
+      <c r="B18" s="68"/>
     </row>
     <row r="19" spans="2:3" ht="40.5">
-      <c r="B19" s="30" t="s">
-        <v>162</v>
+      <c r="B19" s="28" t="s">
+        <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2472,30 +2373,79 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C4:G4"/>
+  <dimension ref="C3:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E16" sqref="D16:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="9" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="4" spans="3:7" ht="154.5">
-      <c r="C4" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D4" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G4" s="29" t="s">
-        <v>153</v>
-      </c>
+    <row r="3" spans="3:4">
+      <c r="C3" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="3:4" ht="38.25">
+      <c r="C4" s="74" t="s">
+        <v>235</v>
+      </c>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="3:4" ht="38.25">
+      <c r="C5" s="74" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="17"/>
+    </row>
+    <row r="6" spans="3:4" ht="51">
+      <c r="C6" s="74" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="17"/>
+    </row>
+    <row r="7" spans="3:4" ht="38.25">
+      <c r="C7" s="75" t="s">
+        <v>238</v>
+      </c>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="3:4" ht="30.75" customHeight="1">
+      <c r="C8" s="72" t="s">
+        <v>239</v>
+      </c>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="3:4" ht="38.25">
+      <c r="C9" s="72" t="s">
+        <v>240</v>
+      </c>
+      <c r="D9" s="17"/>
+    </row>
+    <row r="10" spans="3:4" ht="63.75">
+      <c r="C10" s="72" t="s">
+        <v>241</v>
+      </c>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="3:4" ht="63.75">
+      <c r="C11" s="72" t="s">
+        <v>242</v>
+      </c>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="3:4" ht="76.5">
+      <c r="C12" s="73" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2505,773 +2455,786 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B4:AA75"/>
+  <dimension ref="B4:AB75"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="39"/>
-    <col min="2" max="2" width="15.25" style="39" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.75" style="39" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9" style="39"/>
-    <col min="8" max="8" width="13.375" style="39" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" style="39"/>
-    <col min="10" max="12" width="14.125" style="39" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.625" style="39" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9" style="39"/>
-    <col min="15" max="15" width="13" style="39" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="39"/>
+    <col min="1" max="1" width="9" style="29"/>
+    <col min="2" max="2" width="15.25" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.75" style="29" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="9" style="29"/>
+    <col min="8" max="8" width="13.375" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" style="29"/>
+    <col min="10" max="12" width="14.125" style="29" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.625" style="29" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" style="29"/>
+    <col min="15" max="15" width="13" style="29" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9" style="29"/>
+    <col min="17" max="17" width="13.375" style="29" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="29"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:26">
-      <c r="B4" s="39" t="s">
+    <row r="4" spans="2:27">
+      <c r="B4" s="29" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="35.25" customHeight="1">
-      <c r="B5" s="40"/>
-      <c r="C5" s="39" t="s">
+    <row r="5" spans="2:27" ht="35.25" customHeight="1">
+      <c r="B5" s="30"/>
+      <c r="C5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="39" t="s">
+      <c r="J5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="K5" s="39" t="s">
+      <c r="K5" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="R5" s="41" t="s">
+      <c r="S5" s="31" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="9" spans="2:26">
-      <c r="C9" s="42" t="s">
+    <row r="9" spans="2:27">
+      <c r="C9" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="42" t="s">
+      <c r="D9" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="42" t="s">
+      <c r="E9" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="43" t="s">
+      <c r="G9" s="60" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="44" t="s">
+      <c r="H9" s="60"/>
+      <c r="I9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="45"/>
-      <c r="K9" s="46" t="s">
+      <c r="J9" s="62"/>
+      <c r="K9" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="39" t="s">
+      <c r="L9" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="M9" s="46" t="s">
+      <c r="M9" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="N9" s="46" t="s">
+      <c r="N9" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="O9" s="47" t="s">
+      <c r="O9" s="33" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" spans="2:26" ht="94.5">
-      <c r="B10" s="39" t="s">
+    <row r="10" spans="2:27" ht="94.5">
+      <c r="B10" s="29" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="48" t="s">
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="I10" s="50" t="s">
+      <c r="I10" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="51" t="s">
+      <c r="J10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="K10" s="50" t="s">
+      <c r="K10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="L10" s="52" t="s">
+      <c r="L10" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="50" t="s">
+      <c r="M10" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="N10" s="50" t="s">
+      <c r="N10" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="O10" s="53" t="s">
+      <c r="O10" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="R10" s="54" t="s">
+      <c r="S10" s="40" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="11" spans="2:26">
-      <c r="B11" s="39">
+    <row r="11" spans="2:27">
+      <c r="B11" s="29">
         <v>10001</v>
       </c>
-      <c r="C11" s="55">
+      <c r="C11" s="41">
         <v>42767</v>
       </c>
-      <c r="D11" s="39" t="s">
+      <c r="D11" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="39" t="s">
+      <c r="E11" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="F11" s="39" t="s">
+      <c r="F11" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="K11" s="39" t="s">
+      <c r="K11" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="L11" s="39" t="s">
+      <c r="L11" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="O11" s="39" t="s">
+      <c r="O11" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="16" spans="2:26" ht="14.25">
-      <c r="B16" s="39" t="s">
+    <row r="16" spans="2:27" ht="14.25">
+      <c r="B16" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="T16" s="73" t="s">
+      <c r="C16" s="30"/>
+      <c r="U16" s="58" t="s">
+        <v>216</v>
+      </c>
+      <c r="V16" s="59"/>
+      <c r="Z16" s="58" t="s">
+        <v>215</v>
+      </c>
+      <c r="AA16" s="59"/>
+    </row>
+    <row r="17" spans="3:28">
+      <c r="C17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="U17" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="V17" s="56" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z17" s="57" t="s">
+        <v>214</v>
+      </c>
+      <c r="AA17" s="56" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="18" spans="3:28">
+      <c r="C18" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="U18" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="V18" s="43"/>
+      <c r="Z18" s="55" t="s">
+        <v>212</v>
+      </c>
+      <c r="AA18" s="43"/>
+    </row>
+    <row r="19" spans="3:28">
+      <c r="C19" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="3:28">
+      <c r="C20" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="J20" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M20" s="29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="21" spans="3:28" ht="14.25">
+      <c r="C21" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="J21" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K21" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="M21" s="29" t="s">
+        <v>203</v>
+      </c>
+      <c r="V21" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="W21" s="54" t="s">
+        <v>210</v>
+      </c>
+      <c r="AA21" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="AB21" s="54" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="22" spans="3:28" ht="14.25">
+      <c r="C22" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="J22" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K22" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="M22" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="N22" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="U22" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="V22" s="29">
+        <v>2021</v>
+      </c>
+      <c r="W22" s="29">
+        <v>12</v>
+      </c>
+      <c r="Z22" s="54" t="s">
+        <v>209</v>
+      </c>
+      <c r="AA22" s="29">
+        <v>2021</v>
+      </c>
+      <c r="AB22" s="29">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="3:28">
+      <c r="C23" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="J23" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="M23" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="N23" s="29" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24" spans="3:28" ht="14.25">
+      <c r="U24" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="V24" s="54"/>
+    </row>
+    <row r="25" spans="3:28">
+      <c r="J25" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="M25" s="29" t="s">
+        <v>204</v>
+      </c>
+      <c r="N25" s="29" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="3:28">
+      <c r="J26" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="M26" s="29" t="s">
+        <v>206</v>
+      </c>
+      <c r="N26" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="U16" s="72"/>
-      <c r="Y16" s="73" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z16" s="72"/>
-    </row>
-    <row r="17" spans="3:27">
-      <c r="C17" s="39" t="s">
-        <v>86</v>
-      </c>
-      <c r="T17" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="U17" s="70" t="s">
-        <v>220</v>
-      </c>
-      <c r="Y17" s="71" t="s">
-        <v>221</v>
-      </c>
-      <c r="Z17" s="70" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="3:27">
-      <c r="C18" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="T18" s="69" t="s">
+    </row>
+    <row r="27" spans="3:28">
+      <c r="U27" s="29" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="28" spans="3:28">
+      <c r="K28" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="U28" s="29" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="3:28">
+      <c r="U29" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="U18" s="57"/>
-      <c r="Y18" s="69" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z18" s="57"/>
-    </row>
-    <row r="19" spans="3:27">
-      <c r="C19" s="39" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="3:27">
-      <c r="C20" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="J20" s="39" t="s">
+    </row>
+    <row r="34" spans="3:21" ht="14.25">
+      <c r="C34" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="D34" s="48"/>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="G34" s="48"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="50"/>
+      <c r="N34" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="O34" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="P34" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="S34" s="29" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="3:21">
+      <c r="U36" s="29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="3:21">
+      <c r="C37" s="51" t="s">
+        <v>230</v>
+      </c>
+      <c r="D37" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F37" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="G37" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="H37" s="51" t="s">
+        <v>190</v>
+      </c>
+      <c r="I37" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="J37" s="51" t="s">
+        <v>191</v>
+      </c>
+      <c r="K37" s="51" t="s">
+        <v>192</v>
+      </c>
+      <c r="L37" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="M37" s="51" t="s">
+        <v>194</v>
+      </c>
+      <c r="N37" s="51" t="s">
+        <v>246</v>
+      </c>
+      <c r="O37" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="P37" s="51" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q37" s="51" t="s">
+        <v>247</v>
+      </c>
+      <c r="R37" s="51" t="s">
+        <v>175</v>
+      </c>
+      <c r="S37" s="51" t="s">
         <v>232</v>
       </c>
-      <c r="K20" s="39" t="s">
+    </row>
+    <row r="38" spans="3:21">
+      <c r="C38" s="51" t="s">
         <v>231</v>
       </c>
-      <c r="M20" s="39" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="21" spans="3:27" ht="14.25">
-      <c r="C21" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="J21" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="K21" s="39" t="s">
-        <v>231</v>
-      </c>
-      <c r="M21" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="U21" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="V21" s="68" t="s">
-        <v>217</v>
-      </c>
-      <c r="Z21" s="68" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA21" s="68" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="22" spans="3:27" ht="14.25">
-      <c r="C22" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="K22" s="39" t="s">
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="M22" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="N22" s="39" t="s">
-        <v>212</v>
-      </c>
-      <c r="T22" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="U22" s="39">
-        <v>2021</v>
-      </c>
-      <c r="V22" s="39">
-        <v>12</v>
-      </c>
-      <c r="Y22" s="68" t="s">
-        <v>216</v>
-      </c>
-      <c r="Z22" s="39">
-        <v>2021</v>
-      </c>
-      <c r="AA22" s="39">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="3:27">
-      <c r="C23" s="39" t="s">
-        <v>146</v>
-      </c>
-      <c r="J23" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="K23" s="39" t="s">
-        <v>234</v>
-      </c>
-      <c r="M23" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="N23" s="39" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" ht="14.25">
-      <c r="T24" s="68" t="s">
-        <v>215</v>
-      </c>
-      <c r="U24" s="68"/>
-    </row>
-    <row r="25" spans="3:27">
-      <c r="J25" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="K25" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="M25" s="39" t="s">
-        <v>211</v>
-      </c>
-      <c r="N25" s="39" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="26" spans="3:27">
-      <c r="J26" s="39" t="s">
-        <v>235</v>
-      </c>
-      <c r="K26" s="39" t="s">
-        <v>227</v>
-      </c>
-      <c r="M26" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="N26" s="39" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="27" spans="3:27">
-      <c r="T27" s="39" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="28" spans="3:27">
-      <c r="K28" s="39" t="s">
-        <v>236</v>
-      </c>
-      <c r="T28" s="39" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="29" spans="3:27">
-      <c r="T29" s="39" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="34" spans="3:20" ht="14.25">
-      <c r="C34" s="63" t="s">
-        <v>237</v>
-      </c>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="64"/>
-      <c r="K34" s="64"/>
-      <c r="N34" s="39" t="s">
+    </row>
+    <row r="39" spans="3:21">
+      <c r="C39" s="51"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="H39" s="53" t="s">
+        <v>200</v>
+      </c>
+      <c r="I39" s="53"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="R39" s="53" t="s">
+        <v>197</v>
+      </c>
+      <c r="S39" s="51"/>
+    </row>
+    <row r="40" spans="3:21">
+      <c r="C40" s="51"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
+      <c r="R40" s="53" t="s">
+        <v>198</v>
+      </c>
+      <c r="S40" s="51"/>
+    </row>
+    <row r="41" spans="3:21">
+      <c r="C41" s="51"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="53"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
+      <c r="R41" s="53" t="s">
+        <v>199</v>
+      </c>
+      <c r="S41" s="51"/>
+    </row>
+    <row r="42" spans="3:21">
+      <c r="C42" s="51"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
+      <c r="R42" s="53"/>
+      <c r="S42" s="51"/>
+    </row>
+    <row r="43" spans="3:21">
+      <c r="C43" s="51"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
+      <c r="R43" s="53"/>
+      <c r="S43" s="51"/>
+    </row>
+    <row r="44" spans="3:21">
+      <c r="C44" s="51"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
+      <c r="R44" s="52"/>
+      <c r="S44" s="51"/>
+    </row>
+    <row r="45" spans="3:21">
+      <c r="C45" s="51"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
+      <c r="K45" s="52"/>
+      <c r="L45" s="52"/>
+      <c r="M45" s="52"/>
+      <c r="N45" s="52"/>
+      <c r="O45" s="52"/>
+      <c r="P45" s="52"/>
+      <c r="Q45" s="52"/>
+      <c r="R45" s="52"/>
+      <c r="S45" s="51"/>
+    </row>
+    <row r="49" spans="3:21">
+      <c r="C49" s="44"/>
+      <c r="D49" s="45"/>
+      <c r="O49" s="46"/>
+    </row>
+    <row r="57" spans="3:21">
+      <c r="C57" s="29" t="s">
         <v>177</v>
       </c>
-      <c r="O34" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="P34" s="39" t="s">
+      <c r="D57" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E57" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="47"/>
+      <c r="N57" s="29" t="s">
+        <v>171</v>
+      </c>
+      <c r="O57" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="P57" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="U57" s="29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21">
+      <c r="C60" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D60" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E60" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F60" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G60" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H60" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I60" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J60" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="K60" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L60" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="M60" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N60" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="O60" s="29" t="s">
         <v>178</v>
       </c>
-      <c r="Q34" s="39" t="s">
+      <c r="P60" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21">
+      <c r="C61" s="44">
+        <v>1001</v>
+      </c>
+      <c r="D61" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E61" s="29" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="O61" s="46">
+        <v>44197</v>
+      </c>
+      <c r="P61" s="29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="3:21">
+      <c r="C71" s="29" t="s">
+        <v>177</v>
+      </c>
+      <c r="D71" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="P71" s="29" t="s">
+        <v>173</v>
+      </c>
+      <c r="U71" s="29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:21">
+      <c r="C74" s="29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D74" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="E74" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="F74" s="29" t="s">
+        <v>161</v>
+      </c>
+      <c r="G74" s="29" t="s">
+        <v>162</v>
+      </c>
+      <c r="H74" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="I74" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="J74" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="K74" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="L74" s="29" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="36" spans="3:20">
-      <c r="T36" s="39">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="3:20">
-      <c r="C37" s="65" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="65" t="s">
-        <v>19</v>
-      </c>
-      <c r="E37" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="F37" s="65" t="s">
-        <v>195</v>
-      </c>
-      <c r="G37" s="65" t="s">
-        <v>196</v>
-      </c>
-      <c r="H37" s="65" t="s">
-        <v>18</v>
-      </c>
-      <c r="I37" s="65" t="s">
-        <v>197</v>
-      </c>
-      <c r="J37" s="65" t="s">
-        <v>198</v>
-      </c>
-      <c r="K37" s="65" t="s">
-        <v>199</v>
-      </c>
-      <c r="L37" s="65" t="s">
-        <v>200</v>
-      </c>
-      <c r="M37" s="65" t="s">
-        <v>172</v>
-      </c>
-      <c r="N37" s="65" t="s">
-        <v>24</v>
-      </c>
-      <c r="O37" s="65" t="s">
-        <v>201</v>
-      </c>
-      <c r="P37" s="65" t="s">
+      <c r="M74" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="N74" s="29" t="s">
+        <v>168</v>
+      </c>
+      <c r="O74" s="29" t="s">
+        <v>178</v>
+      </c>
+      <c r="P74" s="29" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="3:21">
+      <c r="C75" s="29">
+        <v>1001</v>
+      </c>
+      <c r="D75" s="29" t="s">
+        <v>180</v>
+      </c>
+      <c r="E75" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="Q37" s="65" t="s">
-        <v>238</v>
-      </c>
-      <c r="R37" s="65" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="3:20">
-      <c r="C38" s="65"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="65"/>
-      <c r="F38" s="65"/>
-      <c r="G38" s="65"/>
-      <c r="H38" s="65"/>
-      <c r="I38" s="65"/>
-      <c r="J38" s="65"/>
-      <c r="K38" s="65"/>
-      <c r="L38" s="65"/>
-      <c r="M38" s="65"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="Q38" s="65" t="s">
-        <v>239</v>
-      </c>
-      <c r="R38" s="65" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="39" spans="3:20">
-      <c r="C39" s="66"/>
-      <c r="D39" s="66"/>
-      <c r="E39" s="66"/>
-      <c r="F39" s="67" t="s">
-        <v>202</v>
-      </c>
-      <c r="G39" s="67" t="s">
-        <v>207</v>
-      </c>
-      <c r="H39" s="67"/>
-      <c r="I39" s="66"/>
-      <c r="J39" s="66"/>
-      <c r="K39" s="66"/>
-      <c r="L39" s="66"/>
-      <c r="M39" s="66"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="66"/>
-      <c r="P39" s="67" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q39" s="65"/>
-      <c r="R39" s="65"/>
-    </row>
-    <row r="40" spans="3:20">
-      <c r="C40" s="66"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="66"/>
-      <c r="I40" s="66"/>
-      <c r="J40" s="66"/>
-      <c r="K40" s="66"/>
-      <c r="L40" s="66"/>
-      <c r="M40" s="66"/>
-      <c r="N40" s="66"/>
-      <c r="O40" s="66"/>
-      <c r="P40" s="67" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q40" s="65"/>
-      <c r="R40" s="65"/>
-    </row>
-    <row r="41" spans="3:20">
-      <c r="C41" s="66"/>
-      <c r="D41" s="66"/>
-      <c r="E41" s="66"/>
-      <c r="F41" s="66"/>
-      <c r="G41" s="66"/>
-      <c r="H41" s="66"/>
-      <c r="I41" s="66"/>
-      <c r="J41" s="66"/>
-      <c r="K41" s="66"/>
-      <c r="L41" s="66"/>
-      <c r="M41" s="67" t="s">
-        <v>206</v>
-      </c>
-      <c r="N41" s="66"/>
-      <c r="O41" s="66"/>
-      <c r="P41" s="67" t="s">
-        <v>205</v>
-      </c>
-      <c r="Q41" s="65"/>
-      <c r="R41" s="65"/>
-    </row>
-    <row r="42" spans="3:20">
-      <c r="C42" s="66"/>
-      <c r="D42" s="66"/>
-      <c r="E42" s="66"/>
-      <c r="F42" s="66"/>
-      <c r="G42" s="66"/>
-      <c r="H42" s="66"/>
-      <c r="I42" s="66"/>
-      <c r="J42" s="66"/>
-      <c r="K42" s="66"/>
-      <c r="L42" s="66"/>
-      <c r="M42" s="66"/>
-      <c r="N42" s="66"/>
-      <c r="O42" s="66"/>
-      <c r="P42" s="67"/>
-      <c r="Q42" s="65"/>
-      <c r="R42" s="65"/>
-    </row>
-    <row r="43" spans="3:20">
-      <c r="C43" s="66"/>
-      <c r="D43" s="66"/>
-      <c r="E43" s="66"/>
-      <c r="F43" s="66"/>
-      <c r="G43" s="66"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="66"/>
-      <c r="J43" s="66"/>
-      <c r="K43" s="66"/>
-      <c r="L43" s="66"/>
-      <c r="M43" s="66"/>
-      <c r="N43" s="66"/>
-      <c r="O43" s="66"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="65"/>
-      <c r="R43" s="65"/>
-    </row>
-    <row r="44" spans="3:20">
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="65"/>
-      <c r="R44" s="65"/>
-    </row>
-    <row r="45" spans="3:20">
-      <c r="C45" s="66"/>
-      <c r="D45" s="66"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="66"/>
-      <c r="G45" s="66"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="66"/>
-      <c r="J45" s="66"/>
-      <c r="K45" s="66"/>
-      <c r="L45" s="66"/>
-      <c r="M45" s="66"/>
-      <c r="N45" s="66"/>
-      <c r="O45" s="66"/>
-      <c r="P45" s="66"/>
-      <c r="Q45" s="65"/>
-      <c r="R45" s="65"/>
-    </row>
-    <row r="49" spans="3:20">
-      <c r="C49" s="58"/>
-      <c r="D49" s="59"/>
-      <c r="O49" s="60"/>
-    </row>
-    <row r="57" spans="3:20">
-      <c r="C57" s="39" t="s">
+      <c r="F75" s="29" t="s">
+        <v>182</v>
+      </c>
+      <c r="O75" s="46">
+        <v>44197</v>
+      </c>
+      <c r="P75" s="29" t="s">
         <v>183</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E57" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F57" s="56"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="61"/>
-      <c r="N57" s="39" t="s">
-        <v>177</v>
-      </c>
-      <c r="O57" s="39" t="s">
-        <v>178</v>
-      </c>
-      <c r="P57" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="T57" s="39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="3:20">
-      <c r="C60" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E60" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="F60" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="G60" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H60" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="I60" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="J60" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="K60" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="L60" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="M60" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="N60" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="O60" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="P60" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="61" spans="3:20">
-      <c r="C61" s="58">
-        <v>1001</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="E61" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F61" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="O61" s="60">
-        <v>44197</v>
-      </c>
-      <c r="P61" s="39" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="71" spans="3:20">
-      <c r="C71" s="39" t="s">
-        <v>183</v>
-      </c>
-      <c r="D71" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="E71" s="39" t="s">
-        <v>176</v>
-      </c>
-      <c r="F71" s="56"/>
-      <c r="G71" s="56"/>
-      <c r="P71" s="39" t="s">
-        <v>179</v>
-      </c>
-      <c r="T71" s="39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="3:20">
-      <c r="C74" s="39" t="s">
-        <v>180</v>
-      </c>
-      <c r="D74" s="39" t="s">
-        <v>164</v>
-      </c>
-      <c r="E74" s="39" t="s">
-        <v>165</v>
-      </c>
-      <c r="F74" s="39" t="s">
-        <v>166</v>
-      </c>
-      <c r="G74" s="39" t="s">
-        <v>167</v>
-      </c>
-      <c r="H74" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="I74" s="39" t="s">
-        <v>169</v>
-      </c>
-      <c r="J74" s="39" t="s">
-        <v>170</v>
-      </c>
-      <c r="K74" s="39" t="s">
-        <v>171</v>
-      </c>
-      <c r="L74" s="39" t="s">
-        <v>185</v>
-      </c>
-      <c r="M74" s="39" t="s">
-        <v>173</v>
-      </c>
-      <c r="N74" s="39" t="s">
-        <v>174</v>
-      </c>
-      <c r="O74" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="P74" s="39" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="75" spans="3:20">
-      <c r="C75" s="39">
-        <v>1001</v>
-      </c>
-      <c r="D75" s="39" t="s">
-        <v>186</v>
-      </c>
-      <c r="E75" s="39" t="s">
-        <v>187</v>
-      </c>
-      <c r="F75" s="39" t="s">
-        <v>188</v>
-      </c>
-      <c r="O75" s="60">
-        <v>44197</v>
-      </c>
-      <c r="P75" s="39" t="s">
-        <v>189</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="U16:V16"/>
+    <mergeCell ref="Z16:AA16"/>
     <mergeCell ref="G9:H9"/>
     <mergeCell ref="I9:J9"/>
     <mergeCell ref="C9:C10"/>
@@ -3805,7 +3768,7 @@
         <v>69</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3999,20 +3962,20 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4023,102 +3986,102 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="G5" s="15"/>
-      <c r="H5" s="36" t="s">
+      <c r="H5" s="64" t="s">
         <v>95</v>
       </c>
-      <c r="I5" s="36"/>
+      <c r="I5" s="64"/>
       <c r="J5" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="K5" s="36" t="s">
+      <c r="K5" s="64" t="s">
         <v>97</v>
       </c>
-      <c r="L5" s="36"/>
+      <c r="L5" s="64"/>
       <c r="M5" s="17"/>
     </row>
     <row r="6" spans="1:13">
       <c r="G6" s="15"/>
-      <c r="H6" s="36" t="s">
+      <c r="H6" s="64" t="s">
         <v>98</v>
       </c>
-      <c r="I6" s="36"/>
+      <c r="I6" s="64"/>
       <c r="J6" s="16"/>
-      <c r="K6" s="36" t="s">
+      <c r="K6" s="64" t="s">
         <v>99</v>
       </c>
-      <c r="L6" s="36"/>
+      <c r="L6" s="64"/>
       <c r="M6" s="17"/>
     </row>
     <row r="7" spans="1:13">
       <c r="G7" s="15"/>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="I7" s="36"/>
+      <c r="I7" s="64"/>
       <c r="J7" s="16"/>
-      <c r="K7" s="37" t="s">
+      <c r="K7" s="65" t="s">
         <v>100</v>
       </c>
-      <c r="L7" s="36"/>
+      <c r="L7" s="64"/>
       <c r="M7" s="17"/>
     </row>
     <row r="8" spans="1:13">
       <c r="G8" s="15"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
+      <c r="H8" s="64"/>
+      <c r="I8" s="64"/>
       <c r="J8" s="16"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
+      <c r="K8" s="64"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="17"/>
     </row>
     <row r="9" spans="1:13">
       <c r="G9" s="15"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
       <c r="J9" s="16"/>
-      <c r="K9" s="36"/>
-      <c r="L9" s="36"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="17"/>
     </row>
     <row r="10" spans="1:13">
       <c r="G10" s="15"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64"/>
       <c r="J10" s="16"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
+      <c r="K10" s="64"/>
+      <c r="L10" s="64"/>
       <c r="M10" s="17"/>
     </row>
     <row r="11" spans="1:13">
       <c r="G11" s="18"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
+      <c r="H11" s="66"/>
+      <c r="I11" s="66"/>
       <c r="J11" s="19"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
       <c r="M11" s="20"/>
     </row>
     <row r="19" spans="2:17">
       <c r="B19" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="2:17">
       <c r="B20" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:17">
       <c r="B21" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="2:17">
       <c r="E22" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="2:17">
